--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H2">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I2">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J2">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N2">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O2">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P2">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q2">
-        <v>17.20021305042077</v>
+        <v>18.624497526408</v>
       </c>
       <c r="R2">
-        <v>17.20021305042077</v>
+        <v>74.497990105632</v>
       </c>
       <c r="S2">
-        <v>0.02925062548020321</v>
+        <v>0.0287352931921039</v>
       </c>
       <c r="T2">
-        <v>0.02925062548020321</v>
+        <v>0.01676010602769403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H3">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I3">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J3">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N3">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O3">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P3">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q3">
-        <v>17.80272986960465</v>
+        <v>20.710215877056</v>
       </c>
       <c r="R3">
-        <v>17.80272986960465</v>
+        <v>124.261295262336</v>
       </c>
       <c r="S3">
-        <v>0.03027526359205729</v>
+        <v>0.0319532983080562</v>
       </c>
       <c r="T3">
-        <v>0.03027526359205729</v>
+        <v>0.02795555263682074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H4">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I4">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J4">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N4">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O4">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P4">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q4">
-        <v>21.49587362426064</v>
+        <v>23.964687861488</v>
       </c>
       <c r="R4">
-        <v>21.49587362426064</v>
+        <v>143.788127168928</v>
       </c>
       <c r="S4">
-        <v>0.03655581165825413</v>
+        <v>0.0369745455403931</v>
       </c>
       <c r="T4">
-        <v>0.03655581165825413</v>
+        <v>0.03234858086047344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H5">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I5">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J5">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N5">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O5">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P5">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q5">
-        <v>29.94367348613551</v>
+        <v>32.42901297688</v>
       </c>
       <c r="R5">
-        <v>29.94367348613551</v>
+        <v>194.57407786128</v>
       </c>
       <c r="S5">
-        <v>0.05092211218994257</v>
+        <v>0.05003395095625493</v>
       </c>
       <c r="T5">
-        <v>0.05092211218994257</v>
+        <v>0.04377409606046959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H6">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I6">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J6">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N6">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O6">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P6">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q6">
-        <v>13.3363497994858</v>
+        <v>14.541342417664</v>
       </c>
       <c r="R6">
-        <v>13.3363497994858</v>
+        <v>87.248054505984</v>
       </c>
       <c r="S6">
-        <v>0.02267975240272965</v>
+        <v>0.02243549052455647</v>
       </c>
       <c r="T6">
-        <v>0.02267975240272965</v>
+        <v>0.01962853819488175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H7">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I7">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J7">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N7">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O7">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P7">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q7">
-        <v>9.950403920394315</v>
+        <v>10.865743959528</v>
       </c>
       <c r="R7">
-        <v>9.950403920394315</v>
+        <v>43.46297583811199</v>
       </c>
       <c r="S7">
-        <v>0.01692162402866747</v>
+        <v>0.01676449729635134</v>
       </c>
       <c r="T7">
-        <v>0.01692162402866747</v>
+        <v>0.009778036726802801</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H8">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I8">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J8">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N8">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O8">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P8">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q8">
-        <v>17.68788157927658</v>
+        <v>20.2281133270225</v>
       </c>
       <c r="R8">
-        <v>17.68788157927658</v>
+        <v>121.368679962135</v>
       </c>
       <c r="S8">
-        <v>0.03007995296900976</v>
+        <v>0.03120947377779809</v>
       </c>
       <c r="T8">
-        <v>0.03007995296900976</v>
+        <v>0.02730478958858337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H9">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I9">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J9">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N9">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O9">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P9">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q9">
-        <v>18.30748123865326</v>
+        <v>22.49341724222</v>
       </c>
       <c r="R9">
-        <v>18.30748123865326</v>
+        <v>202.44075517998</v>
       </c>
       <c r="S9">
-        <v>0.03113364210245018</v>
+        <v>0.03470455717965219</v>
       </c>
       <c r="T9">
-        <v>0.03113364210245018</v>
+        <v>0.04554389341688311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H10">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I10">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J10">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N10">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O10">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P10">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q10">
-        <v>22.10533474175286</v>
+        <v>26.02810740110167</v>
       </c>
       <c r="R10">
-        <v>22.10533474175286</v>
+        <v>234.252966609915</v>
       </c>
       <c r="S10">
-        <v>0.03759225922086586</v>
+        <v>0.04015814635244413</v>
       </c>
       <c r="T10">
-        <v>0.03759225922086586</v>
+        <v>0.05270081182213311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H11">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I11">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J11">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N11">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O11">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P11">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q11">
-        <v>30.7926505979141</v>
+        <v>35.22123207080833</v>
       </c>
       <c r="R11">
-        <v>30.7926505979141</v>
+        <v>316.991088637275</v>
       </c>
       <c r="S11">
-        <v>0.05236587986102339</v>
+        <v>0.05434199922477087</v>
       </c>
       <c r="T11">
-        <v>0.05236587986102339</v>
+        <v>0.0713147327580485</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H12">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I12">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J12">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N12">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O12">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P12">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q12">
-        <v>13.71446826045816</v>
+        <v>15.79338835501333</v>
       </c>
       <c r="R12">
-        <v>13.71446826045816</v>
+        <v>142.14049519512</v>
       </c>
       <c r="S12">
-        <v>0.02332277940807146</v>
+        <v>0.02436724235027429</v>
       </c>
       <c r="T12">
-        <v>0.02332277940807146</v>
+        <v>0.03197790661092005</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H13">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I13">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J13">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N13">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O13">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P13">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q13">
-        <v>10.23252245155176</v>
+        <v>11.8013116801725</v>
       </c>
       <c r="R13">
-        <v>10.23252245155176</v>
+        <v>70.80787008103499</v>
       </c>
       <c r="S13">
-        <v>0.01740139387057123</v>
+        <v>0.01820796242692299</v>
       </c>
       <c r="T13">
-        <v>0.01740139387057123</v>
+        <v>0.01592992520295677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H14">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I14">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J14">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N14">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O14">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P14">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q14">
-        <v>2.73943019275722</v>
+        <v>2.784388509632333</v>
       </c>
       <c r="R14">
-        <v>2.73943019275722</v>
+        <v>16.706331057794</v>
       </c>
       <c r="S14">
-        <v>0.004658665934114234</v>
+        <v>0.0042959666467008</v>
       </c>
       <c r="T14">
-        <v>0.004658665934114234</v>
+        <v>0.003758489047360453</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H15">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I15">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J15">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N15">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O15">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P15">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q15">
-        <v>2.835391374242468</v>
+        <v>3.096206329234667</v>
       </c>
       <c r="R15">
-        <v>2.835391374242468</v>
+        <v>27.865856963112</v>
       </c>
       <c r="S15">
-        <v>0.004821857202270889</v>
+        <v>0.00477706292626973</v>
       </c>
       <c r="T15">
-        <v>0.004821857202270889</v>
+        <v>0.006269091509611154</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H16">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I16">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J16">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N16">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O16">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P16">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q16">
-        <v>3.42358812959893</v>
+        <v>3.582754456802889</v>
       </c>
       <c r="R16">
-        <v>3.42358812959893</v>
+        <v>32.244790111226</v>
       </c>
       <c r="S16">
-        <v>0.005822142660896746</v>
+        <v>0.005527746432115619</v>
       </c>
       <c r="T16">
-        <v>0.005822142660896746</v>
+        <v>0.007254237333632872</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H17">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I17">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J17">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N17">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O17">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P17">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q17">
-        <v>4.769045766440478</v>
+        <v>4.848182936667778</v>
       </c>
       <c r="R17">
-        <v>4.769045766440478</v>
+        <v>43.63364643001</v>
       </c>
       <c r="S17">
-        <v>0.008110223472417197</v>
+        <v>0.007480145863616896</v>
       </c>
       <c r="T17">
-        <v>0.008110223472417197</v>
+        <v>0.009816433161551761</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H18">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I18">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J18">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N18">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O18">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P18">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q18">
-        <v>2.124043417066241</v>
+        <v>2.173951092369778</v>
       </c>
       <c r="R18">
-        <v>2.124043417066241</v>
+        <v>19.565559831328</v>
       </c>
       <c r="S18">
-        <v>0.003612141216749394</v>
+        <v>0.003354137309528167</v>
       </c>
       <c r="T18">
-        <v>0.003612141216749394</v>
+        <v>0.004401740997297833</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H19">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I19">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J19">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N19">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O19">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P19">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q19">
-        <v>1.584773214712661</v>
+        <v>1.624443966159</v>
       </c>
       <c r="R19">
-        <v>1.584773214712661</v>
+        <v>9.746663796954</v>
       </c>
       <c r="S19">
-        <v>0.002695060092495989</v>
+        <v>0.002506315865732012</v>
       </c>
       <c r="T19">
-        <v>0.002695060092495989</v>
+        <v>0.002192745313284451</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H20">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I20">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J20">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N20">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O20">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P20">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q20">
-        <v>1.144147137315591</v>
+        <v>2.183118150476167</v>
       </c>
       <c r="R20">
-        <v>1.144147137315591</v>
+        <v>13.098708902857</v>
       </c>
       <c r="S20">
-        <v>0.001945732841201423</v>
+        <v>0.003368280944921424</v>
       </c>
       <c r="T20">
-        <v>0.001945732841201423</v>
+        <v>0.002946868093038478</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H21">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I21">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J21">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N21">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O21">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P21">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q21">
-        <v>1.184226169582978</v>
+        <v>2.427600965737334</v>
       </c>
       <c r="R21">
-        <v>1.184226169582978</v>
+        <v>21.848408691636</v>
       </c>
       <c r="S21">
-        <v>0.002013891111045274</v>
+        <v>0.003745487651679517</v>
       </c>
       <c r="T21">
-        <v>0.002013891111045274</v>
+        <v>0.00491532248976108</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H22">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I22">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J22">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N22">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O22">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P22">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q22">
-        <v>1.42989172280595</v>
+        <v>2.809082229828111</v>
       </c>
       <c r="R22">
-        <v>1.42989172280595</v>
+        <v>25.281740068453</v>
       </c>
       <c r="S22">
-        <v>0.002431669139122449</v>
+        <v>0.004334065998848333</v>
       </c>
       <c r="T22">
-        <v>0.002431669139122449</v>
+        <v>0.005687732561792155</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H23">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I23">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J23">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N23">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O23">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P23">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q23">
-        <v>1.991833949931022</v>
+        <v>3.801249764267222</v>
       </c>
       <c r="R23">
-        <v>1.991833949931022</v>
+        <v>34.211247878405</v>
       </c>
       <c r="S23">
-        <v>0.003387306233788825</v>
+        <v>0.005864857632682725</v>
       </c>
       <c r="T23">
-        <v>0.003387306233788825</v>
+        <v>0.007696639076688903</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H24">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I24">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J24">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N24">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O24">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P24">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q24">
-        <v>0.8871254327252512</v>
+        <v>1.704500672798222</v>
       </c>
       <c r="R24">
-        <v>0.8871254327252512</v>
+        <v>15.340506055184</v>
       </c>
       <c r="S24">
-        <v>0.00150864257963216</v>
+        <v>0.002629833449710343</v>
       </c>
       <c r="T24">
-        <v>0.00150864257963216</v>
+        <v>0.003451214021194499</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H25">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I25">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J25">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N25">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O25">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P25">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q25">
-        <v>0.6618944851020022</v>
+        <v>1.2736559911395</v>
       </c>
       <c r="R25">
-        <v>0.6618944851020022</v>
+        <v>7.641935946837</v>
       </c>
       <c r="S25">
-        <v>0.001125615574317377</v>
+        <v>0.001965093462488265</v>
       </c>
       <c r="T25">
-        <v>0.001125615574317377</v>
+        <v>0.001719236405495345</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H26">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I26">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J26">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N26">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O26">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P26">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q26">
-        <v>21.17198460540988</v>
+        <v>23.42404042746784</v>
       </c>
       <c r="R26">
-        <v>21.17198460540988</v>
+        <v>140.544242564807</v>
       </c>
       <c r="S26">
-        <v>0.03600500706299812</v>
+        <v>0.03614039350444691</v>
       </c>
       <c r="T26">
-        <v>0.03600500706299812</v>
+        <v>0.03161879137448083</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H27">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I27">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J27">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N27">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O27">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P27">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q27">
-        <v>21.91363104797819</v>
+        <v>26.04724950447067</v>
       </c>
       <c r="R27">
-        <v>21.91363104797819</v>
+        <v>234.4252455402361</v>
       </c>
       <c r="S27">
-        <v>0.03726624855266444</v>
+        <v>0.04018768024735012</v>
       </c>
       <c r="T27">
-        <v>0.03726624855266444</v>
+        <v>0.05273957009110688</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H28">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I28">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J28">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N28">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O28">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P28">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q28">
-        <v>26.4595737342654</v>
+        <v>30.14040064722256</v>
       </c>
       <c r="R28">
-        <v>26.4595737342654</v>
+        <v>271.263605825003</v>
       </c>
       <c r="S28">
-        <v>0.04499706366415536</v>
+        <v>0.04650290555744497</v>
       </c>
       <c r="T28">
-        <v>0.04499706366415536</v>
+        <v>0.06102724098509535</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H29">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I29">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J29">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N29">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O29">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P29">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q29">
-        <v>36.85808961897551</v>
+        <v>40.78598683890612</v>
       </c>
       <c r="R29">
-        <v>36.85808961897551</v>
+        <v>367.0738815501551</v>
       </c>
       <c r="S29">
-        <v>0.06268074541867634</v>
+        <v>0.06292772668274477</v>
       </c>
       <c r="T29">
-        <v>0.06268074541867634</v>
+        <v>0.08258205578505533</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H30">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I30">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J30">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N30">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O30">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P30">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q30">
-        <v>16.4159008856095</v>
+        <v>18.28865407928712</v>
       </c>
       <c r="R30">
-        <v>16.4159008856095</v>
+        <v>164.597886713584</v>
       </c>
       <c r="S30">
-        <v>0.02791682680426759</v>
+        <v>0.02821712834465061</v>
       </c>
       <c r="T30">
-        <v>0.02791682680426759</v>
+        <v>0.03703023436394005</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H31">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I31">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J31">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N31">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O31">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P31">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q31">
-        <v>12.24809239296282</v>
+        <v>13.6658519469645</v>
       </c>
       <c r="R31">
-        <v>12.24809239296282</v>
+        <v>81.99511168178701</v>
       </c>
       <c r="S31">
-        <v>0.020829065453042</v>
+        <v>0.02108471715057567</v>
       </c>
       <c r="T31">
-        <v>0.020829065453042</v>
+        <v>0.0184467629742869</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H32">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I32">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J32">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N32">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O32">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P32">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q32">
-        <v>32.23069887564763</v>
+        <v>32.4069331470785</v>
       </c>
       <c r="R32">
-        <v>32.23069887564763</v>
+        <v>129.627732588314</v>
       </c>
       <c r="S32">
-        <v>0.0548114200105046</v>
+        <v>0.04999988451327689</v>
       </c>
       <c r="T32">
-        <v>0.0548114200105046</v>
+        <v>0.02916286116214922</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H33">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I33">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J33">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N33">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O33">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P33">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q33">
-        <v>33.35972780742319</v>
+        <v>36.036117508012</v>
       </c>
       <c r="R33">
-        <v>33.35972780742319</v>
+        <v>216.216705048072</v>
       </c>
       <c r="S33">
-        <v>0.05673144288131858</v>
+        <v>0.05559926653750354</v>
       </c>
       <c r="T33">
-        <v>0.05673144288131858</v>
+        <v>0.04864312307521405</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H34">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I34">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J34">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N34">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O34">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P34">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q34">
-        <v>40.28014233437487</v>
+        <v>41.69895248538434</v>
       </c>
       <c r="R34">
-        <v>40.28014233437487</v>
+        <v>250.193714912306</v>
       </c>
       <c r="S34">
-        <v>0.06850027695925864</v>
+        <v>0.06433631961195921</v>
       </c>
       <c r="T34">
-        <v>0.06850027695925864</v>
+        <v>0.05628706470398984</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H35">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I35">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J35">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N35">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O35">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P35">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q35">
-        <v>56.11009122580246</v>
+        <v>56.42701791430166</v>
       </c>
       <c r="R35">
-        <v>56.11009122580246</v>
+        <v>338.56210748581</v>
       </c>
       <c r="S35">
-        <v>0.09542063573833662</v>
+        <v>0.0870599006187673</v>
       </c>
       <c r="T35">
-        <v>0.09542063573833662</v>
+        <v>0.07616764976311415</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H36">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I36">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J36">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N36">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O36">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P36">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q36">
-        <v>24.99038083002205</v>
+        <v>25.30217585359467</v>
       </c>
       <c r="R36">
-        <v>24.99038083002205</v>
+        <v>151.813055121568</v>
       </c>
       <c r="S36">
-        <v>0.04249855906574034</v>
+        <v>0.03903812387530434</v>
       </c>
       <c r="T36">
-        <v>0.04249855906574034</v>
+        <v>0.03415398048481424</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.551509397295277</v>
+        <v>0.552323</v>
       </c>
       <c r="H37">
-        <v>0.551509397295277</v>
+        <v>1.104646</v>
       </c>
       <c r="I37">
-        <v>0.349670998202298</v>
+        <v>0.3252039971989148</v>
       </c>
       <c r="J37">
-        <v>0.349670998202298</v>
+        <v>0.2614286245086584</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N37">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O37">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P37">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q37">
-        <v>18.64561046477545</v>
+        <v>18.9065738600685</v>
       </c>
       <c r="R37">
-        <v>18.64561046477545</v>
+        <v>75.62629544027399</v>
       </c>
       <c r="S37">
-        <v>0.03170866354713917</v>
+        <v>0.0291705020421035</v>
       </c>
       <c r="T37">
-        <v>0.03170866354713917</v>
+        <v>0.01701394531937693</v>
       </c>
     </row>
   </sheetData>
